--- a/Basic.xlsx
+++ b/Basic.xlsx
@@ -67,93 +67,1009 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.68988764044944"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.389887640449439"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.18988764044944"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.789887640449443"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.789887640449443"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.68988764044944"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.58988764044944"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="29.489887640449442"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Student Name</t>
         </is>
       </c>
       <c r="B1" s="0" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
-          <t>Marks</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="D1" s="0" t="inlineStr">
         <is>
-          <t>Percentage</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E1" s="0" t="inlineStr">
         <is>
-          <t>Grade</t>
+          <t>School</t>
         </is>
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
-          <t>Remark</t>
+          <t>Group</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>Eda Haley</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>8389 Makenna Lock</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>рпар</t>
+          <t>(274)155-4088 x243</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>парап</t>
+          <t>ignacio.osinski@sanford.name</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>Auer, Becker and Pacocha</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>Hand, O'Conner and Douglas</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>ропро</t>
+          <t>Mellie Legros</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>пропр</t>
+          <t>39070 Lind Parkways</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>про</t>
+          <t>567-362-2576 x5147</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>про</t>
+          <t>shania@smithmaggio.net</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>Schroeder-Zboncak</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>Hand, O'Conner and Douglas</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Marcel Tremblay</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>2631 Braun Ramp</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>583-901-4298 x87129</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>danyka@howell.org</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Auer, Becker and Pacocha</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>Hand, O'Conner and Douglas</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Adela Doyle</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>3066 Mills Ways</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>265-608-9016 x636</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>gordon@bahringer.org</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>Howell-Sawayn</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>Heaney, Yundt and Gleason</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Karine Gaylord</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>8618 Huel Grove</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>1-931-818-3861</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>tanner_reinger@tromp.com</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>Auer, Becker and Pacocha</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>Hand, O'Conner and Douglas</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Everette Marks</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>2880 Goyette Camp</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>(591)963-1576</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>clay@stehr.com</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>Schroeder-Zboncak</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>Hand, O'Conner and Douglas</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Petra Nikolaus</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>7241 Burley Pines</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>1-983-999-9243 x324</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>amy@gottliebfadel.net</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>Howell-Sawayn</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>Heaney, Yundt and Gleason</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>David Osinski</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>9124 Jones Rue</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>511.525.1423 x5204</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>jamal@pouros.com</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>Schroeder-Zboncak</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>Lueilwitz, Gottlieb and Hartmann</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Juston Block</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>8373 Rolfson Ridges</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>(203)388-2399</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>kayla@leannon.name</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>Howell-Sawayn</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>Heaney, Yundt and Gleason</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Doug Gerhold</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>4815 Lakin Inlet</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>1-308-175-3894</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>guiseppe@bartell.biz</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>Howell-Sawayn</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>Heaney, Yundt and Gleason</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Lavon Pacocha</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>7740 Corwin Prairie</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>904.816.1523</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>jerrod.lehner@corkery.biz</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>Auer, Becker and Pacocha</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>Lueilwitz, Gottlieb and Hartmann</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Spencer Thiel</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>84786 Delmer Divide</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>755-557-4381 x720</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>ericka.mills@keler.info</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>Howell-Sawayn</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>Heaney, Yundt and Gleason</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Dawn King</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>158 Malcolm Passage</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>670.464.4700 x508</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>weston@murraykohler.net</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Howell-Sawayn</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>Hand, O'Conner and Douglas</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Flo Bergnaum</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>1321 Meredith Vista</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>608.314.6810 x770</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>annabel@metz.net</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>Auer, Becker and Pacocha</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>Lueilwitz, Gottlieb and Hartmann</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Adrien Dare</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>27314 Pfannerstill Pine</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>357.811.7033 x5277</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>nathanial@moore.org</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>Howell-Sawayn</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>Heaney, Yundt and Gleason</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Aryanna Lakin</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>61780 Kirstin Heights</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>631-115-0573 x3838</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>lorenzo@barton.info</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>Howell-Sawayn</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>Heaney, Yundt and Gleason</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Agnes Farrell</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>850 Reinger Drive</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>(394)766-4748 x29058</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>marie_gutmann@vandervort.biz</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>Schroeder-Zboncak</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>Lueilwitz, Gottlieb and Hartmann</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Gennaro Cartwright</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>2464 Dach Fields</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>502-377-0831</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>grace_leuschke@feest.info</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>Howell-Sawayn</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>Lueilwitz, Gottlieb and Hartmann</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Monte Dooley</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>60273 Pagac Loaf</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>(135)293-7719 x621</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>edwina@streichwolff.biz</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>Schroeder-Zboncak</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>Hand, O'Conner and Douglas</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Gaston Hand</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>167 Cole Mills</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>(856)163-6820 x055</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>lola.will@macgyver.info</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>Howell-Sawayn</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>Heaney, Yundt and Gleason</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Darrel Connelly</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>595 Giovani Roads</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>944-234-7170 x597</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>francis@roob.name</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>Auer, Becker and Pacocha</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>Heaney, Yundt and Gleason</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Ben Anderson</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>87318 Mante Cliff</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>773.380.5521 x45112</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>ward@deckow.org</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>Howell-Sawayn</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>Heaney, Yundt and Gleason</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Golden Mann</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>130 Abshire Plains</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>351.673.2474</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>deon@ondrickabotsford.com</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>Howell-Sawayn</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>Lueilwitz, Gottlieb and Hartmann</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Anne Greenholt</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>962 Wilkinson Knolls</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>358-717-7086</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>jaime.raynor@volkmandooley.biz</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>Howell-Sawayn</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>Heaney, Yundt and Gleason</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Jean Cummerata</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>37165 Ryan Prairie</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>1-862-420-5507 x73065</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>serena.fritsch@rennerdicki.com</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>Auer, Becker and Pacocha</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>Heaney, Yundt and Gleason</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Luisa Murphy</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>810 Cesar Points</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>945.076.3398</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>kailyn@trantow.net</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>Auer, Becker and Pacocha</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>Lueilwitz, Gottlieb and Hartmann</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Rudy Jakubowski</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>77557 Thaddeus Bridge</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>1-558-953-8082 x77316</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>vincenza.miller@rathprice.com</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>Schroeder-Zboncak</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>Hand, O'Conner and Douglas</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Delfina Stiedemann</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>902 Blick Cliff</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>(209)150-7488 x39947</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>ernie.okeefe@bernier.org</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>Auer, Becker and Pacocha</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>Heaney, Yundt and Gleason</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Delmer Feil</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>83122 Ledner Ridges</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>690.050.7374 x91821</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>isabelle_deckow@mueller.info</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>Howell-Sawayn</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>Heaney, Yundt and Gleason</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Kaitlyn Miller</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>5141 Nyah Plaza</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>394.185.4826</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>jayce@altenwerth.biz</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>Howell-Sawayn</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>Lueilwitz, Gottlieb and Hartmann</t>
         </is>
       </c>
     </row>
